--- a/lib/PHPExcel/templates/Dimensionnel.xlsx
+++ b/lib/PHPExcel/templates/Dimensionnel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1367,6 +1367,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1385,29 +1403,11 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="17">
     <dxf>
       <font>
         <sz val="10"/>
@@ -1543,454 +1543,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
           <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FFC0504D"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FFC0504D"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FFC0504D"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF92D050"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF92D050"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FFC0504D"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FFC0504D"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FFC0504D"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF92D050"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF92D050"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FFC0504D"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FFC0504D"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FFC0504D"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF92D050"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF92D050"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF92D050"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FF92D050"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2588,29 +2140,29 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="111"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="115"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="127"/>
     </row>
     <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="128" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="116"/>
+      <c r="A12" s="128"/>
       <c r="B12" s="14" t="s">
         <v>21</v>
       </c>
@@ -2630,7 +2182,7 @@
       <c r="P12" s="15"/>
     </row>
     <row r="13" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="116"/>
+      <c r="A13" s="128"/>
       <c r="B13" s="7" t="s">
         <v>22</v>
       </c>
@@ -2681,7 +2233,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="116"/>
+      <c r="A14" s="128"/>
       <c r="B14" s="67"/>
       <c r="C14" s="68"/>
       <c r="D14" s="68" t="str">
@@ -9826,61 +9378,64 @@
       <c r="B4" s="52"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="128" t="s">
+      <c r="B5" s="122" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="121" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="121" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="121" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="127"/>
+      <c r="B9" s="121"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="H10" s="119"/>
-      <c r="I10" s="120" t="s">
+      <c r="H10" s="113"/>
+      <c r="I10" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="115"/>
+      <c r="N10" s="111"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H11" s="116">
+        <v>1</v>
+      </c>
+      <c r="I11" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="117"/>
+      <c r="N11" s="111"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H12" s="118">
+        <v>2</v>
+      </c>
+      <c r="I12" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="121"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="H11" s="122">
-        <v>1</v>
-      </c>
-      <c r="I11" s="117" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="123"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="H12" s="124">
-        <v>2</v>
-      </c>
-      <c r="I12" s="125" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="126"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="120"/>
+      <c r="N12" s="111"/>
     </row>
     <row r="13" spans="1:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H13" s="118"/>
+      <c r="H13" s="112"/>
     </row>
     <row r="14" spans="1:20" s="44" customFormat="1" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A14" s="86"/>

--- a/lib/PHPExcel/templates/Dimensionnel.xlsx
+++ b/lib/PHPExcel/templates/Dimensionnel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13410" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13410"/>
   </bookViews>
   <sheets>
     <sheet name="INSPECTION QUALITE DIM INSTRUM" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
-  <si>
-    <t>Edition 03 Mar 2017</t>
-  </si>
   <si>
     <t>nominal_1</t>
   </si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>Sauvegarder le fichier excel (sans changer le nom) sur le poste, et insérer le dans le split IQC</t>
+  </si>
+  <si>
+    <t>Edition 12 Jul 2017</t>
   </si>
 </sst>
 </file>
@@ -1965,9 +1965,7 @@
   </sheetPr>
   <dimension ref="A1:S115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1991,16 +1989,16 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P1" s="4" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="R1" s="104"/>
       <c r="S1" s="36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B2" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -2018,25 +2016,25 @@
       <c r="P2" s="26"/>
       <c r="R2" s="105"/>
       <c r="S2" s="37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R3" s="106"/>
       <c r="S3" s="38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R4" s="107"/>
       <c r="S4" s="40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="101"/>
       <c r="B5" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="30"/>
@@ -2045,7 +2043,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="31"/>
       <c r="J5" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2055,12 +2053,12 @@
       <c r="P5" s="31"/>
       <c r="R5" s="105"/>
       <c r="S5" s="37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -2069,7 +2067,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="34"/>
       <c r="J6" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -2079,12 +2077,12 @@
       <c r="P6" s="27"/>
       <c r="R6" s="108"/>
       <c r="S6" s="39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -2093,7 +2091,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="35"/>
       <c r="J7" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2103,24 +2101,24 @@
       <c r="P7" s="42"/>
       <c r="R7" s="104"/>
       <c r="S7" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R8" s="105"/>
       <c r="S8" s="37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -2130,13 +2128,13 @@
       <c r="L9" s="5"/>
       <c r="M9" s="29"/>
       <c r="N9" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="6"/>
       <c r="R9" s="106"/>
       <c r="S9" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2158,13 +2156,13 @@
     </row>
     <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="128" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="128"/>
       <c r="B12" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -2184,52 +2182,52 @@
     <row r="13" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="128"/>
       <c r="B13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="H13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="I13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="J13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="K13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="L13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="M13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="N13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="O13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="P13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="R13" s="109" t="s">
         <v>36</v>
-      </c>
-      <c r="R13" s="109" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9322,7 +9320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -9342,7 +9340,7 @@
   <sheetData>
     <row r="2" spans="1:20" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B2" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -9359,7 +9357,7 @@
     </row>
     <row r="3" spans="1:20" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B3" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="51"/>
@@ -9379,22 +9377,22 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5" s="122" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" s="121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" s="121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.2">
@@ -9403,7 +9401,7 @@
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H10" s="113"/>
       <c r="I10" s="114" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10" s="114"/>
       <c r="K10" s="114"/>
@@ -9415,7 +9413,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J11" s="111"/>
       <c r="K11" s="111"/>
@@ -9427,7 +9425,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12" s="119"/>
       <c r="K12" s="119"/>
@@ -9440,55 +9438,55 @@
     <row r="14" spans="1:20" s="44" customFormat="1" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A14" s="86"/>
       <c r="B14" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="D14" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="E14" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="F14" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="89" t="s">
+      <c r="G14" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="89" t="s">
+      <c r="H14" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="90" t="s">
+      <c r="I14" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="90" t="s">
+      <c r="J14" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="90" t="s">
+      <c r="K14" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="90" t="s">
+      <c r="L14" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="90" t="s">
+      <c r="M14" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="88" t="s">
+      <c r="N14" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="91" t="s">
+      <c r="O14" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="45" t="s">
+      <c r="P14" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="46" t="s">
+      <c r="R14" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="R14" s="44" t="s">
-        <v>37</v>
-      </c>
       <c r="T14" s="44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="44" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
